--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema4c-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema4c-Plxnb2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.183690666666667</v>
+        <v>13.91414233333333</v>
       </c>
       <c r="H2">
-        <v>24.551072</v>
+        <v>41.742427</v>
       </c>
       <c r="I2">
-        <v>0.3868726890979893</v>
+        <v>0.5843356285814723</v>
       </c>
       <c r="J2">
-        <v>0.3868726890979893</v>
+        <v>0.5843356285814724</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N2">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O2">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P2">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q2">
-        <v>62.56424694924444</v>
+        <v>167.616799103354</v>
       </c>
       <c r="R2">
-        <v>563.0782225432</v>
+        <v>1508.551191930186</v>
       </c>
       <c r="S2">
-        <v>0.01509381557095906</v>
+        <v>0.03745176179158578</v>
       </c>
       <c r="T2">
-        <v>0.01509381557095905</v>
+        <v>0.03745176179158579</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.183690666666667</v>
+        <v>13.91414233333333</v>
       </c>
       <c r="H3">
-        <v>24.551072</v>
+        <v>41.742427</v>
       </c>
       <c r="I3">
-        <v>0.3868726890979893</v>
+        <v>0.5843356285814723</v>
       </c>
       <c r="J3">
-        <v>0.3868726890979893</v>
+        <v>0.5843356285814724</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>112.478866</v>
       </c>
       <c r="O3">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P3">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q3">
-        <v>306.8307486271502</v>
+        <v>521.6823170053091</v>
       </c>
       <c r="R3">
-        <v>2761.476737644352</v>
+        <v>4695.140853047782</v>
       </c>
       <c r="S3">
-        <v>0.07402385479097393</v>
+        <v>0.1165630293137749</v>
       </c>
       <c r="T3">
-        <v>0.07402385479097393</v>
+        <v>0.116563029313775</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.183690666666667</v>
+        <v>13.91414233333333</v>
       </c>
       <c r="H4">
-        <v>24.551072</v>
+        <v>41.742427</v>
       </c>
       <c r="I4">
-        <v>0.3868726890979893</v>
+        <v>0.5843356285814723</v>
       </c>
       <c r="J4">
-        <v>0.3868726890979893</v>
+        <v>0.5843356285814724</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N4">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O4">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P4">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q4">
-        <v>479.6567596827875</v>
+        <v>740.7546348277675</v>
       </c>
       <c r="R4">
-        <v>4316.910837145088</v>
+        <v>6666.791713449908</v>
       </c>
       <c r="S4">
-        <v>0.1157186575567543</v>
+        <v>0.1655118477264104</v>
       </c>
       <c r="T4">
-        <v>0.1157186575567542</v>
+        <v>0.1655118477264105</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.183690666666667</v>
+        <v>13.91414233333333</v>
       </c>
       <c r="H5">
-        <v>24.551072</v>
+        <v>41.742427</v>
       </c>
       <c r="I5">
-        <v>0.3868726890979893</v>
+        <v>0.5843356285814723</v>
       </c>
       <c r="J5">
-        <v>0.3868726890979893</v>
+        <v>0.5843356285814724</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N5">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O5">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P5">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q5">
-        <v>167.470301086816</v>
+        <v>212.651952229968</v>
       </c>
       <c r="R5">
-        <v>1507.232709781344</v>
+        <v>1913.867570069712</v>
       </c>
       <c r="S5">
-        <v>0.04040272138603455</v>
+        <v>0.04751427244784487</v>
       </c>
       <c r="T5">
-        <v>0.04040272138603454</v>
+        <v>0.04751427244784488</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.183690666666667</v>
+        <v>13.91414233333333</v>
       </c>
       <c r="H6">
-        <v>24.551072</v>
+        <v>41.742427</v>
       </c>
       <c r="I6">
-        <v>0.3868726890979893</v>
+        <v>0.5843356285814723</v>
       </c>
       <c r="J6">
-        <v>0.3868726890979893</v>
+        <v>0.5843356285814724</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N6">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O6">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P6">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q6">
-        <v>96.27840916382577</v>
+        <v>139.5406896475883</v>
       </c>
       <c r="R6">
-        <v>866.505682474432</v>
+        <v>1255.866206828295</v>
       </c>
       <c r="S6">
-        <v>0.02322746012691631</v>
+        <v>0.03117852564224576</v>
       </c>
       <c r="T6">
-        <v>0.02322746012691631</v>
+        <v>0.03117852564224576</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.183690666666667</v>
+        <v>13.91414233333333</v>
       </c>
       <c r="H7">
-        <v>24.551072</v>
+        <v>41.742427</v>
       </c>
       <c r="I7">
-        <v>0.3868726890979893</v>
+        <v>0.5843356285814723</v>
       </c>
       <c r="J7">
-        <v>0.3868726890979893</v>
+        <v>0.5843356285814724</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N7">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O7">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P7">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q7">
-        <v>490.7966067384179</v>
+        <v>832.9701678893796</v>
       </c>
       <c r="R7">
-        <v>4417.16946064576</v>
+        <v>7496.731511004416</v>
       </c>
       <c r="S7">
-        <v>0.1184061796663512</v>
+        <v>0.1861161916596105</v>
       </c>
       <c r="T7">
-        <v>0.1184061796663511</v>
+        <v>0.1861161916596105</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>13.567116</v>
       </c>
       <c r="I8">
-        <v>0.2137888989215768</v>
+        <v>0.1899206592826466</v>
       </c>
       <c r="J8">
-        <v>0.2137888989215768</v>
+        <v>0.1899206592826466</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N8">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O8">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P8">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q8">
-        <v>34.57349625356666</v>
+        <v>54.478781432232</v>
       </c>
       <c r="R8">
-        <v>311.1614662820999</v>
+        <v>490.309032890088</v>
       </c>
       <c r="S8">
-        <v>0.008340961516214353</v>
+        <v>0.01217256477757779</v>
       </c>
       <c r="T8">
-        <v>0.00834096151621435</v>
+        <v>0.01217256477757779</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>13.567116</v>
       </c>
       <c r="I9">
-        <v>0.2137888989215768</v>
+        <v>0.1899206592826466</v>
       </c>
       <c r="J9">
-        <v>0.2137888989215768</v>
+        <v>0.1899206592826466</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>112.478866</v>
       </c>
       <c r="O9">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P9">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q9">
         <v>169.5570913967173</v>
@@ -1013,10 +1013,10 @@
         <v>1526.013822570456</v>
       </c>
       <c r="S9">
-        <v>0.04090616591879569</v>
+        <v>0.03788529449932044</v>
       </c>
       <c r="T9">
-        <v>0.04090616591879567</v>
+        <v>0.03788529449932044</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>13.567116</v>
       </c>
       <c r="I10">
-        <v>0.2137888989215768</v>
+        <v>0.1899206592826466</v>
       </c>
       <c r="J10">
-        <v>0.2137888989215768</v>
+        <v>0.1899206592826466</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N10">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O10">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P10">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q10">
-        <v>265.0621080334293</v>
+        <v>240.7599361255627</v>
       </c>
       <c r="R10">
-        <v>2385.558972300864</v>
+        <v>2166.839425130064</v>
       </c>
       <c r="S10">
-        <v>0.06394704273755385</v>
+        <v>0.05379463052013116</v>
       </c>
       <c r="T10">
-        <v>0.06394704273755382</v>
+        <v>0.05379463052013116</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>13.567116</v>
       </c>
       <c r="I11">
-        <v>0.2137888989215768</v>
+        <v>0.1899206592826466</v>
       </c>
       <c r="J11">
-        <v>0.2137888989215768</v>
+        <v>0.1899206592826466</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N11">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O11">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P11">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q11">
-        <v>92.545409072148</v>
+        <v>69.116098676544</v>
       </c>
       <c r="R11">
-        <v>832.9086816493319</v>
+        <v>622.044888088896</v>
       </c>
       <c r="S11">
-        <v>0.02232686245879656</v>
+        <v>0.01544308015332974</v>
       </c>
       <c r="T11">
-        <v>0.02232686245879656</v>
+        <v>0.01544308015332974</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>13.567116</v>
       </c>
       <c r="I12">
-        <v>0.2137888989215768</v>
+        <v>0.1899206592826466</v>
       </c>
       <c r="J12">
-        <v>0.2137888989215768</v>
+        <v>0.1899206592826466</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N12">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O12">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P12">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q12">
-        <v>53.20420816741066</v>
+        <v>45.35348946454</v>
       </c>
       <c r="R12">
-        <v>478.8378735066959</v>
+        <v>408.1814051808599</v>
       </c>
       <c r="S12">
-        <v>0.01283567764076649</v>
+        <v>0.01013363871001853</v>
       </c>
       <c r="T12">
-        <v>0.01283567764076649</v>
+        <v>0.01013363871001853</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>13.567116</v>
       </c>
       <c r="I13">
-        <v>0.2137888989215768</v>
+        <v>0.1899206592826466</v>
       </c>
       <c r="J13">
-        <v>0.2137888989215768</v>
+        <v>0.1899206592826466</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N13">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O13">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P13">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q13">
-        <v>271.2180753665867</v>
+        <v>270.7318118396587</v>
       </c>
       <c r="R13">
-        <v>2440.96267829928</v>
+        <v>2436.586306556928</v>
       </c>
       <c r="S13">
-        <v>0.06543218864944991</v>
+        <v>0.06049145062226899</v>
       </c>
       <c r="T13">
-        <v>0.06543218864944988</v>
+        <v>0.06049145062226899</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.7513506666666667</v>
+        <v>0.1732633333333333</v>
       </c>
       <c r="H14">
-        <v>2.254052</v>
+        <v>0.51979</v>
       </c>
       <c r="I14">
-        <v>0.0355190664833984</v>
+        <v>0.007276333414450566</v>
       </c>
       <c r="J14">
-        <v>0.0355190664833984</v>
+        <v>0.007276333414450566</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N14">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O14">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P14">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q14">
-        <v>5.744069585411111</v>
+        <v>2.08721778458</v>
       </c>
       <c r="R14">
-        <v>51.6966262687</v>
+        <v>18.78496006122</v>
       </c>
       <c r="S14">
-        <v>0.001385774322821887</v>
+        <v>0.000466361269833409</v>
       </c>
       <c r="T14">
-        <v>0.001385774322821887</v>
+        <v>0.000466361269833409</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.7513506666666667</v>
+        <v>0.1732633333333333</v>
       </c>
       <c r="H15">
-        <v>2.254052</v>
+        <v>0.51979</v>
       </c>
       <c r="I15">
-        <v>0.0355190664833984</v>
+        <v>0.007276333414450566</v>
       </c>
       <c r="J15">
-        <v>0.0355190664833984</v>
+        <v>0.007276333414450566</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>112.478866</v>
       </c>
       <c r="O15">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P15">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q15">
-        <v>28.17035698500356</v>
+        <v>6.496154417571111</v>
       </c>
       <c r="R15">
-        <v>253.533212865032</v>
+        <v>58.46538975813999</v>
       </c>
       <c r="S15">
-        <v>0.006796184620341807</v>
+        <v>0.001451479977601855</v>
       </c>
       <c r="T15">
-        <v>0.006796184620341806</v>
+        <v>0.001451479977601855</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.7513506666666667</v>
+        <v>0.1732633333333333</v>
       </c>
       <c r="H16">
-        <v>2.254052</v>
+        <v>0.51979</v>
       </c>
       <c r="I16">
-        <v>0.0355190664833984</v>
+        <v>0.007276333414450566</v>
       </c>
       <c r="J16">
-        <v>0.0355190664833984</v>
+        <v>0.007276333414450566</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N16">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O16">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P16">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q16">
-        <v>44.03764033100089</v>
+        <v>9.224112714795556</v>
       </c>
       <c r="R16">
-        <v>396.338762979008</v>
+        <v>83.01701443316</v>
       </c>
       <c r="S16">
-        <v>0.01062421516678038</v>
+        <v>0.002061006259403913</v>
       </c>
       <c r="T16">
-        <v>0.01062421516678038</v>
+        <v>0.002061006259403913</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.7513506666666667</v>
+        <v>0.1732633333333333</v>
       </c>
       <c r="H17">
-        <v>2.254052</v>
+        <v>0.51979</v>
       </c>
       <c r="I17">
-        <v>0.0355190664833984</v>
+        <v>0.007276333414450566</v>
       </c>
       <c r="J17">
-        <v>0.0355190664833984</v>
+        <v>0.007276333414450566</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N17">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O17">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P17">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q17">
-        <v>15.375571669756</v>
+        <v>2.64800985936</v>
       </c>
       <c r="R17">
-        <v>138.380145027804</v>
+        <v>23.83208873424</v>
       </c>
       <c r="S17">
-        <v>0.003709403603461142</v>
+        <v>0.0005916628584069941</v>
       </c>
       <c r="T17">
-        <v>0.003709403603461141</v>
+        <v>0.0005916628584069941</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.7513506666666667</v>
+        <v>0.1732633333333333</v>
       </c>
       <c r="H18">
-        <v>2.254052</v>
+        <v>0.51979</v>
       </c>
       <c r="I18">
-        <v>0.0355190664833984</v>
+        <v>0.007276333414450566</v>
       </c>
       <c r="J18">
-        <v>0.0355190664833984</v>
+        <v>0.007276333414450566</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N18">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O18">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P18">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q18">
-        <v>8.839391645812444</v>
+        <v>1.737605124683333</v>
       </c>
       <c r="R18">
-        <v>79.554524812312</v>
+        <v>15.63844612215</v>
       </c>
       <c r="S18">
-        <v>0.002132530219209815</v>
+        <v>0.0003882449346700163</v>
       </c>
       <c r="T18">
-        <v>0.002132530219209815</v>
+        <v>0.0003882449346700163</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.7513506666666667</v>
+        <v>0.1732633333333333</v>
       </c>
       <c r="H19">
-        <v>2.254052</v>
+        <v>0.51979</v>
       </c>
       <c r="I19">
-        <v>0.0355190664833984</v>
+        <v>0.007276333414450566</v>
       </c>
       <c r="J19">
-        <v>0.0355190664833984</v>
+        <v>0.007276333414450566</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N19">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O19">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P19">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q19">
-        <v>45.06039789268446</v>
+        <v>10.37240991203556</v>
       </c>
       <c r="R19">
-        <v>405.5435810341601</v>
+        <v>93.35168920832</v>
       </c>
       <c r="S19">
-        <v>0.01087095855078337</v>
+        <v>0.002317578114534378</v>
       </c>
       <c r="T19">
-        <v>0.01087095855078337</v>
+        <v>0.002317578114534378</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.453110333333332</v>
+        <v>4.349201</v>
       </c>
       <c r="H20">
-        <v>19.359331</v>
+        <v>13.047603</v>
       </c>
       <c r="I20">
-        <v>0.3050618907031051</v>
+        <v>0.1826482034809932</v>
       </c>
       <c r="J20">
-        <v>0.3050618907031051</v>
+        <v>0.1826482034809932</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N20">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O20">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P20">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q20">
-        <v>49.33397472241388</v>
+        <v>52.392675941706</v>
       </c>
       <c r="R20">
-        <v>444.0057725017249</v>
+        <v>471.5340834753541</v>
       </c>
       <c r="S20">
-        <v>0.01190197200721624</v>
+        <v>0.01170645203517227</v>
       </c>
       <c r="T20">
-        <v>0.01190197200721623</v>
+        <v>0.01170645203517228</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.453110333333332</v>
+        <v>4.349201</v>
       </c>
       <c r="H21">
-        <v>19.359331</v>
+        <v>13.047603</v>
       </c>
       <c r="I21">
-        <v>0.3050618907031051</v>
+        <v>0.1826482034809932</v>
       </c>
       <c r="J21">
-        <v>0.3050618907031051</v>
+        <v>0.1826482034809932</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>112.478866</v>
       </c>
       <c r="O21">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P21">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q21">
-        <v>241.9461774887384</v>
+        <v>163.0643988286887</v>
       </c>
       <c r="R21">
-        <v>2177.515597398646</v>
+        <v>1467.579589458198</v>
       </c>
       <c r="S21">
-        <v>0.05837025392595484</v>
+        <v>0.03643458802631428</v>
       </c>
       <c r="T21">
-        <v>0.05837025392595482</v>
+        <v>0.03643458802631428</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.453110333333332</v>
+        <v>4.349201</v>
       </c>
       <c r="H22">
-        <v>19.359331</v>
+        <v>13.047603</v>
       </c>
       <c r="I22">
-        <v>0.3050618907031051</v>
+        <v>0.1826482034809932</v>
       </c>
       <c r="J22">
-        <v>0.3050618907031051</v>
+        <v>0.1826482034809932</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N22">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O22">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P22">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q22">
-        <v>378.225194284247</v>
+        <v>231.5407390098013</v>
       </c>
       <c r="R22">
-        <v>3404.026748558224</v>
+        <v>2083.866651088212</v>
       </c>
       <c r="S22">
-        <v>0.09124798275679598</v>
+        <v>0.05173472258646236</v>
       </c>
       <c r="T22">
-        <v>0.09124798275679595</v>
+        <v>0.05173472258646237</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.453110333333332</v>
+        <v>4.349201</v>
       </c>
       <c r="H23">
-        <v>19.359331</v>
+        <v>13.047603</v>
       </c>
       <c r="I23">
-        <v>0.3050618907031051</v>
+        <v>0.1826482034809932</v>
       </c>
       <c r="J23">
-        <v>0.3050618907031051</v>
+        <v>0.1826482034809932</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N23">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O23">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P23">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q23">
-        <v>132.055862628293</v>
+        <v>66.469499961552</v>
       </c>
       <c r="R23">
-        <v>1188.502763654637</v>
+        <v>598.2254996539681</v>
       </c>
       <c r="S23">
-        <v>0.03185887999566868</v>
+        <v>0.01485173259650949</v>
       </c>
       <c r="T23">
-        <v>0.03185887999566867</v>
+        <v>0.0148517325965095</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.453110333333332</v>
+        <v>4.349201</v>
       </c>
       <c r="H24">
-        <v>19.359331</v>
+        <v>13.047603</v>
       </c>
       <c r="I24">
-        <v>0.3050618907031051</v>
+        <v>0.1826482034809932</v>
       </c>
       <c r="J24">
-        <v>0.3050618907031051</v>
+        <v>0.1826482034809932</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N24">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O24">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P24">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q24">
-        <v>75.91870494110954</v>
+        <v>43.616810322695</v>
       </c>
       <c r="R24">
-        <v>683.2683444699858</v>
+        <v>392.551292904255</v>
       </c>
       <c r="S24">
-        <v>0.01831561932962743</v>
+        <v>0.009745600673993935</v>
       </c>
       <c r="T24">
-        <v>0.01831561932962742</v>
+        <v>0.009745600673993937</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.453110333333332</v>
+        <v>4.349201</v>
       </c>
       <c r="H25">
-        <v>19.359331</v>
+        <v>13.047603</v>
       </c>
       <c r="I25">
-        <v>0.3050618907031051</v>
+        <v>0.1826482034809932</v>
       </c>
       <c r="J25">
-        <v>0.3050618907031051</v>
+        <v>0.1826482034809932</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N25">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O25">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P25">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q25">
-        <v>387.0093315487755</v>
+        <v>260.3649294628693</v>
       </c>
       <c r="R25">
-        <v>3483.08398393898</v>
+        <v>2343.284365165824</v>
       </c>
       <c r="S25">
-        <v>0.09336718268784196</v>
+        <v>0.05817510756254083</v>
       </c>
       <c r="T25">
-        <v>0.09336718268784193</v>
+        <v>0.05817510756254084</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.06537666666666667</v>
+        <v>0.3692246666666667</v>
       </c>
       <c r="H26">
-        <v>0.19613</v>
+        <v>1.107674</v>
       </c>
       <c r="I26">
-        <v>0.003090591747390445</v>
+        <v>0.01550588764408341</v>
       </c>
       <c r="J26">
-        <v>0.003090591747390445</v>
+        <v>0.01550588764408341</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N26">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O26">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P26">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q26">
-        <v>0.4998040718611111</v>
+        <v>4.447867162348</v>
       </c>
       <c r="R26">
-        <v>4.49823664675</v>
+        <v>40.03080446113201</v>
       </c>
       <c r="S26">
-        <v>0.0001205792581249487</v>
+        <v>0.0009938172208035006</v>
       </c>
       <c r="T26">
-        <v>0.0001205792581249486</v>
+        <v>0.0009938172208035006</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.06537666666666667</v>
+        <v>0.3692246666666667</v>
       </c>
       <c r="H27">
-        <v>0.19613</v>
+        <v>1.107674</v>
       </c>
       <c r="I27">
-        <v>0.003090591747390445</v>
+        <v>0.01550588764408341</v>
       </c>
       <c r="J27">
-        <v>0.003090591747390445</v>
+        <v>0.01550588764408341</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>112.478866</v>
       </c>
       <c r="O27">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P27">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q27">
-        <v>2.451164443175556</v>
+        <v>13.84332393529822</v>
       </c>
       <c r="R27">
-        <v>22.06047998858</v>
+        <v>124.589915417684</v>
       </c>
       <c r="S27">
-        <v>0.0005913509047651246</v>
+        <v>0.003093108048846953</v>
       </c>
       <c r="T27">
-        <v>0.0005913509047651244</v>
+        <v>0.003093108048846953</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.06537666666666667</v>
+        <v>0.3692246666666667</v>
       </c>
       <c r="H28">
-        <v>0.19613</v>
+        <v>1.107674</v>
       </c>
       <c r="I28">
-        <v>0.003090591747390445</v>
+        <v>0.01550588764408341</v>
       </c>
       <c r="J28">
-        <v>0.003090591747390445</v>
+        <v>0.01550588764408341</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N28">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O28">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P28">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q28">
-        <v>3.831811510168889</v>
+        <v>19.65661099145511</v>
       </c>
       <c r="R28">
-        <v>34.48630359152</v>
+        <v>176.909498923096</v>
       </c>
       <c r="S28">
-        <v>0.0009244362244795752</v>
+        <v>0.004392010326052772</v>
       </c>
       <c r="T28">
-        <v>0.0009244362244795748</v>
+        <v>0.004392010326052772</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.06537666666666667</v>
+        <v>0.3692246666666667</v>
       </c>
       <c r="H29">
-        <v>0.19613</v>
+        <v>1.107674</v>
       </c>
       <c r="I29">
-        <v>0.003090591747390445</v>
+        <v>0.01550588764408341</v>
       </c>
       <c r="J29">
-        <v>0.003090591747390445</v>
+        <v>0.01550588764408341</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N29">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O29">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P29">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q29">
-        <v>1.33786215739</v>
+        <v>5.642916702816001</v>
       </c>
       <c r="R29">
-        <v>12.04075941651</v>
+        <v>50.78625032534401</v>
       </c>
       <c r="S29">
-        <v>0.0003227633296600228</v>
+        <v>0.001260835270057348</v>
       </c>
       <c r="T29">
-        <v>0.0003227633296600227</v>
+        <v>0.001260835270057348</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.06537666666666667</v>
+        <v>0.3692246666666667</v>
       </c>
       <c r="H30">
-        <v>0.19613</v>
+        <v>1.107674</v>
       </c>
       <c r="I30">
-        <v>0.003090591747390445</v>
+        <v>0.01550588764408341</v>
       </c>
       <c r="J30">
-        <v>0.003090591747390445</v>
+        <v>0.01550588764408341</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N30">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O30">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P30">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q30">
-        <v>0.7691348218644444</v>
+        <v>3.702841568476667</v>
       </c>
       <c r="R30">
-        <v>6.922213396779999</v>
+        <v>33.32557411629</v>
       </c>
       <c r="S30">
-        <v>0.0001855561237689375</v>
+        <v>0.0008273510836408466</v>
       </c>
       <c r="T30">
-        <v>0.0001855561237689374</v>
+        <v>0.0008273510836408466</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.06537666666666667</v>
+        <v>0.3692246666666667</v>
       </c>
       <c r="H31">
-        <v>0.19613</v>
+        <v>1.107674</v>
       </c>
       <c r="I31">
-        <v>0.003090591747390445</v>
+        <v>0.01550588764408341</v>
       </c>
       <c r="J31">
-        <v>0.003090591747390445</v>
+        <v>0.01550588764408341</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N31">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O31">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P31">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q31">
-        <v>3.920803885044445</v>
+        <v>22.10363565459911</v>
       </c>
       <c r="R31">
-        <v>35.2872349654</v>
+        <v>198.932720891392</v>
       </c>
       <c r="S31">
-        <v>0.0009459059065918366</v>
+        <v>0.004938765694681994</v>
       </c>
       <c r="T31">
-        <v>0.0009459059065918362</v>
+        <v>0.004938765694681994</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.177546</v>
+        <v>0.483698</v>
       </c>
       <c r="H32">
-        <v>3.532638</v>
+        <v>1.451094</v>
       </c>
       <c r="I32">
-        <v>0.05566686304654</v>
+        <v>0.02031328759635378</v>
       </c>
       <c r="J32">
-        <v>0.05566686304653999</v>
+        <v>0.02031328759635378</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N32">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O32">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P32">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q32">
-        <v>9.002329357116668</v>
+        <v>5.826870859188</v>
       </c>
       <c r="R32">
-        <v>81.02096421405</v>
+        <v>52.44183773269201</v>
       </c>
       <c r="S32">
-        <v>0.002171839439473831</v>
+        <v>0.001301937398733413</v>
       </c>
       <c r="T32">
-        <v>0.002171839439473831</v>
+        <v>0.001301937398733413</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.177546</v>
+        <v>0.483698</v>
       </c>
       <c r="H33">
-        <v>3.532638</v>
+        <v>1.451094</v>
       </c>
       <c r="I33">
-        <v>0.05566686304654</v>
+        <v>0.02031328759635378</v>
       </c>
       <c r="J33">
-        <v>0.05566686304653999</v>
+        <v>0.02031328759635378</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>112.478866</v>
       </c>
       <c r="O33">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P33">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q33">
-        <v>44.14967958094534</v>
+        <v>18.13526750882267</v>
       </c>
       <c r="R33">
-        <v>397.347116228508</v>
+        <v>163.217407579404</v>
       </c>
       <c r="S33">
-        <v>0.01065124497785989</v>
+        <v>0.004052086201385534</v>
       </c>
       <c r="T33">
-        <v>0.01065124497785989</v>
+        <v>0.004052086201385534</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.177546</v>
+        <v>0.483698</v>
       </c>
       <c r="H34">
-        <v>3.532638</v>
+        <v>1.451094</v>
       </c>
       <c r="I34">
-        <v>0.05566686304654</v>
+        <v>0.02031328759635378</v>
       </c>
       <c r="J34">
-        <v>0.05566686304653999</v>
+        <v>0.02031328759635378</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N34">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O34">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P34">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q34">
-        <v>69.01750343986134</v>
+        <v>25.75088904319734</v>
       </c>
       <c r="R34">
-        <v>621.157530958752</v>
+        <v>231.758001388776</v>
       </c>
       <c r="S34">
-        <v>0.01665068339964859</v>
+        <v>0.005753696333102718</v>
       </c>
       <c r="T34">
-        <v>0.01665068339964858</v>
+        <v>0.005753696333102718</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.177546</v>
+        <v>0.483698</v>
       </c>
       <c r="H35">
-        <v>3.532638</v>
+        <v>1.451094</v>
       </c>
       <c r="I35">
-        <v>0.05566686304654</v>
+        <v>0.02031328759635378</v>
       </c>
       <c r="J35">
-        <v>0.05566686304653999</v>
+        <v>0.02031328759635378</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N35">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O35">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P35">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q35">
-        <v>24.09719418731401</v>
+        <v>7.392430056096001</v>
       </c>
       <c r="R35">
-        <v>216.874747685826</v>
+        <v>66.53187050486402</v>
       </c>
       <c r="S35">
-        <v>0.00581352166095714</v>
+        <v>0.001651740941259429</v>
       </c>
       <c r="T35">
-        <v>0.005813521660957138</v>
+        <v>0.001651740941259429</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.177546</v>
+        <v>0.483698</v>
       </c>
       <c r="H36">
-        <v>3.532638</v>
+        <v>1.451094</v>
       </c>
       <c r="I36">
-        <v>0.05566686304654</v>
+        <v>0.02031328759635378</v>
       </c>
       <c r="J36">
-        <v>0.05566686304653999</v>
+        <v>0.02031328759635378</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N36">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O36">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P36">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q36">
-        <v>13.85343852975867</v>
+        <v>4.85085971411</v>
       </c>
       <c r="R36">
-        <v>124.680946767828</v>
+        <v>43.65773742699</v>
       </c>
       <c r="S36">
-        <v>0.00334218433670959</v>
+        <v>0.001083860588372329</v>
       </c>
       <c r="T36">
-        <v>0.003342184336709589</v>
+        <v>0.001083860588372329</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.177546</v>
+        <v>0.483698</v>
       </c>
       <c r="H37">
-        <v>3.532638</v>
+        <v>1.451094</v>
       </c>
       <c r="I37">
-        <v>0.05566686304654</v>
+        <v>0.02031328759635378</v>
       </c>
       <c r="J37">
-        <v>0.05566686304653999</v>
+        <v>0.02031328759635378</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N37">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O37">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P37">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q37">
-        <v>70.62040888622668</v>
+        <v>28.95658205986134</v>
       </c>
       <c r="R37">
-        <v>635.5836799760401</v>
+        <v>260.609238538752</v>
       </c>
       <c r="S37">
-        <v>0.01703738923189095</v>
+        <v>0.006469966133500355</v>
       </c>
       <c r="T37">
-        <v>0.01703738923189095</v>
+        <v>0.006469966133500355</v>
       </c>
     </row>
   </sheetData>
